--- a/biology/Botanique/Paratype/Paratype.xlsx
+++ b/biology/Botanique/Paratype/Paratype.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le paratype est un spécimen cité dans le protologue qui n'est ni l'holotype, ni un isotype, ni l'un des syntypes quand l'auteur a désigné plusieurs spécimens à la fois comme types.
 </t>
@@ -511,7 +523,9 @@
           <t>Zoologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la nomenclature zoologique, un paratype est officiellement défini comme « Tout spécimen d'une série typologique autre que l'holotype ».
 Une série typologique est le matériel qui a été cité dans la publication originale de la nouvelle espèce ou de la sous-espèce, et n'a pas été exclu par l'auteur. En effet, chaque espèce est définie par un spécimen (stocké dans une collection zoologique), mais la variabilité des espèces nécessite la conservation des variants de l'espèce. 
